--- a/MIPS/MIPS/CodigoMIPSde-Hilos-A-Bv2-C-2014.xlsx
+++ b/MIPS/MIPS/CodigoMIPSde-Hilos-A-Bv2-C-2014.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="711"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15540" tabRatio="711"/>
   </bookViews>
   <sheets>
     <sheet name="CODIGO DE PRUEBA " sheetId="1" r:id="rId1"/>
     <sheet name="SOLO TABLAS DE TIEMPO" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="170">
   <si>
     <t>El hilo A escribe en memoria el resultados de varias operaciones. No tiene conflictos de datos</t>
   </si>
@@ -701,6 +706,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>R2</t>
     </r>
@@ -864,12 +870,15 @@
       <t xml:space="preserve"> (INCORRECTA)</t>
     </r>
   </si>
+  <si>
+    <t>R25 = 75</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1312,13 +1321,13 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -2025,31 +2034,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AJ79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="1"/>
-    <col min="2" max="2" width="9.28515625"/>
-    <col min="3" max="3" width="17.42578125"/>
-    <col min="4" max="4" width="19.28515625" style="2"/>
-    <col min="5" max="5" width="12.5703125"/>
-    <col min="6" max="6" width="2.7109375"/>
-    <col min="7" max="7" width="4.28515625" style="3"/>
-    <col min="8" max="8" width="15.85546875"/>
-    <col min="9" max="9" width="11.140625"/>
-    <col min="10" max="15" width="3.7109375" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" customWidth="1"/>
-    <col min="17" max="32" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="2"/>
+    <col min="7" max="7" width="8.83203125" style="3"/>
+    <col min="10" max="15" width="3.6640625" customWidth="1"/>
+    <col min="16" max="16" width="4.83203125" customWidth="1"/>
+    <col min="17" max="32" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -2212,7 +2216,7 @@
       <c r="AI4" s="80"/>
       <c r="AJ4" s="80"/>
     </row>
-    <row r="5" spans="1:36" ht="14.65" customHeight="1" thickBot="1">
+    <row r="5" spans="1:36" ht="14.75" customHeight="1" thickBot="1">
       <c r="A5" s="83"/>
       <c r="B5" s="83"/>
       <c r="C5" s="83"/>
@@ -2250,7 +2254,7 @@
       <c r="AI5" s="80"/>
       <c r="AJ5" s="80"/>
     </row>
-    <row r="6" spans="1:36" ht="13.5" thickBot="1">
+    <row r="6" spans="1:36" ht="13" thickBot="1">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -2368,7 +2372,7 @@
       <c r="AI6" s="80"/>
       <c r="AJ6" s="80"/>
     </row>
-    <row r="7" spans="1:36" ht="14.85" customHeight="1">
+    <row r="7" spans="1:36" ht="14.75" customHeight="1">
       <c r="A7" s="12">
         <v>0</v>
       </c>
@@ -2489,7 +2493,7 @@
       <c r="AI8" s="80"/>
       <c r="AJ8" s="80"/>
     </row>
-    <row r="9" spans="1:36" ht="15">
+    <row r="9" spans="1:36" ht="13">
       <c r="A9" s="12">
         <f>A8+4</f>
         <v>8</v>
@@ -2550,7 +2554,7 @@
       <c r="AI9" s="80"/>
       <c r="AJ9" s="80"/>
     </row>
-    <row r="10" spans="1:36" ht="15">
+    <row r="10" spans="1:36" ht="13">
       <c r="A10" s="12">
         <v>12</v>
       </c>
@@ -3606,7 +3610,7 @@
       <c r="AI27" s="80"/>
       <c r="AJ27" s="80"/>
     </row>
-    <row r="28" spans="1:36" ht="13.5" thickBot="1">
+    <row r="28" spans="1:36" ht="13" thickBot="1">
       <c r="A28" s="67" t="s">
         <v>3</v>
       </c>
@@ -3821,7 +3825,7 @@
       <c r="AI30" s="80"/>
       <c r="AJ30" s="80"/>
     </row>
-    <row r="31" spans="1:36" ht="15">
+    <row r="31" spans="1:36" ht="13">
       <c r="A31" s="91">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -3884,7 +3888,7 @@
       <c r="AI31" s="80"/>
       <c r="AJ31" s="80"/>
     </row>
-    <row r="32" spans="1:36" ht="15">
+    <row r="32" spans="1:36" ht="13">
       <c r="A32" s="91">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -3947,7 +3951,7 @@
       <c r="AI32" s="80"/>
       <c r="AJ32" s="80"/>
     </row>
-    <row r="33" spans="1:36" ht="15">
+    <row r="33" spans="1:36" ht="13">
       <c r="A33" s="96">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -4010,7 +4014,7 @@
       <c r="AI33" s="80"/>
       <c r="AJ33" s="80"/>
     </row>
-    <row r="34" spans="1:36" ht="15">
+    <row r="34" spans="1:36" ht="13">
       <c r="A34" s="96">
         <f t="shared" si="3"/>
         <v>20</v>
@@ -4073,7 +4077,7 @@
       <c r="AI34" s="80"/>
       <c r="AJ34" s="80"/>
     </row>
-    <row r="35" spans="1:36" ht="15">
+    <row r="35" spans="1:36" ht="13">
       <c r="A35" s="96">
         <f t="shared" si="3"/>
         <v>24</v>
@@ -4134,7 +4138,7 @@
       <c r="AI35" s="80"/>
       <c r="AJ35" s="80"/>
     </row>
-    <row r="36" spans="1:36" ht="15">
+    <row r="36" spans="1:36" ht="13">
       <c r="A36" s="96">
         <f t="shared" si="3"/>
         <v>28</v>
@@ -4321,7 +4325,7 @@
       <c r="AI38" s="80"/>
       <c r="AJ38" s="80"/>
     </row>
-    <row r="39" spans="1:36" ht="13.5" thickBot="1">
+    <row r="39" spans="1:36" ht="25" thickBot="1">
       <c r="A39" s="101">
         <f t="shared" si="3"/>
         <v>40</v>
@@ -4416,7 +4420,7 @@
       <c r="AI40" s="80"/>
       <c r="AJ40" s="80"/>
     </row>
-    <row r="41" spans="1:36" ht="13.5" thickBot="1">
+    <row r="41" spans="1:36" ht="13" thickBot="1">
       <c r="A41" s="47"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -4454,7 +4458,7 @@
       <c r="AI41" s="80"/>
       <c r="AJ41" s="80"/>
     </row>
-    <row r="42" spans="1:36" ht="13.5" thickBot="1">
+    <row r="42" spans="1:36" ht="13" thickBot="1">
       <c r="A42" s="5" t="s">
         <v>3</v>
       </c>
@@ -4689,7 +4693,7 @@
       <c r="AI44" s="80"/>
       <c r="AJ44" s="80"/>
     </row>
-    <row r="45" spans="1:36" ht="15">
+    <row r="45" spans="1:36" ht="13">
       <c r="A45" s="114">
         <f>A44+4</f>
         <v>8</v>
@@ -4750,7 +4754,7 @@
       <c r="AI45" s="80"/>
       <c r="AJ45" s="80"/>
     </row>
-    <row r="46" spans="1:36" ht="15.75">
+    <row r="46" spans="1:36" ht="15">
       <c r="A46" s="114">
         <v>12</v>
       </c>
@@ -4812,7 +4816,7 @@
       <c r="AI46" s="80"/>
       <c r="AJ46" s="80"/>
     </row>
-    <row r="47" spans="1:36" ht="15.75">
+    <row r="47" spans="1:36" ht="15">
       <c r="A47" s="114">
         <v>16</v>
       </c>
@@ -4874,7 +4878,7 @@
       <c r="AI47" s="80"/>
       <c r="AJ47" s="80"/>
     </row>
-    <row r="48" spans="1:36" ht="15.75">
+    <row r="48" spans="1:36" ht="15">
       <c r="A48" s="114">
         <f t="shared" ref="A48:A60" si="5">A47+4</f>
         <v>20</v>
@@ -4936,7 +4940,7 @@
       <c r="AI48" s="80"/>
       <c r="AJ48" s="80"/>
     </row>
-    <row r="49" spans="1:36" ht="15.75">
+    <row r="49" spans="1:36" ht="15">
       <c r="A49" s="114">
         <f t="shared" si="5"/>
         <v>24</v>
@@ -4999,7 +5003,7 @@
       <c r="AI49" s="80"/>
       <c r="AJ49" s="80"/>
     </row>
-    <row r="50" spans="1:36" ht="15.75">
+    <row r="50" spans="1:36" ht="15">
       <c r="A50" s="114">
         <f t="shared" si="5"/>
         <v>28</v>
@@ -5060,7 +5064,7 @@
       <c r="AI50" s="80"/>
       <c r="AJ50" s="80"/>
     </row>
-    <row r="51" spans="1:36" ht="15.75">
+    <row r="51" spans="1:36" ht="15">
       <c r="A51" s="114">
         <f t="shared" si="5"/>
         <v>32</v>
@@ -5262,7 +5266,7 @@
       </c>
       <c r="G54" s="125"/>
       <c r="H54" s="132" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="I54" s="136"/>
       <c r="J54" s="129"/>
@@ -5603,7 +5607,7 @@
       <c r="AI59" s="80"/>
       <c r="AJ59" s="80"/>
     </row>
-    <row r="60" spans="1:36" ht="13.5" thickBot="1">
+    <row r="60" spans="1:36" ht="25" thickBot="1">
       <c r="A60" s="114">
         <f t="shared" si="5"/>
         <v>68</v>
@@ -6494,7 +6498,7 @@
       <c r="AI74" s="80"/>
       <c r="AJ74" s="80"/>
     </row>
-    <row r="75" spans="1:36" ht="13.5" thickBot="1">
+    <row r="75" spans="1:36" ht="25" thickBot="1">
       <c r="A75" s="42">
         <f t="shared" si="7"/>
         <v>40</v>
@@ -6710,28 +6714,33 @@
   <printOptions gridLines="1"/>
   <pageMargins left="0.62986111111111098" right="0.30972222222222201" top="0.34027777777777801" bottom="0.37013888888888902" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AD79"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="A63" sqref="A63:R63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="9" width="3.7109375" customWidth="1"/>
-    <col min="10" max="10" width="4.85546875" customWidth="1"/>
-    <col min="11" max="26" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="4" max="9" width="3.6640625" customWidth="1"/>
+    <col min="10" max="10" width="4.83203125" customWidth="1"/>
+    <col min="11" max="26" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
@@ -6870,7 +6879,7 @@
       <c r="AC4" s="80"/>
       <c r="AD4" s="80"/>
     </row>
-    <row r="5" spans="1:30" ht="14.65" customHeight="1" thickBot="1">
+    <row r="5" spans="1:30" ht="14.75" customHeight="1" thickBot="1">
       <c r="A5" s="83"/>
       <c r="B5" s="83"/>
       <c r="C5" s="83"/>
@@ -7006,7 +7015,7 @@
       <c r="AC6" s="80"/>
       <c r="AD6" s="80"/>
     </row>
-    <row r="7" spans="1:30" ht="14.85" customHeight="1">
+    <row r="7" spans="1:30" ht="14.75" customHeight="1">
       <c r="A7" s="12">
         <v>0</v>
       </c>
@@ -8644,7 +8653,7 @@
       <c r="AC40" s="80"/>
       <c r="AD40" s="80"/>
     </row>
-    <row r="41" spans="1:30" ht="13.5" thickBot="1">
+    <row r="41" spans="1:30" ht="13" thickBot="1">
       <c r="A41" s="47"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -10505,6 +10514,11 @@
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.62986111111111098" right="0.30972222222222201" top="0.34027777777777801" bottom="0.37013888888888902" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup firstPageNumber="0" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>